--- a/src/test/resources/test1.xlsx
+++ b/src/test/resources/test1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18450" windowHeight="4440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>名称</t>
   </si>
@@ -41,6 +42,10 @@
   </si>
   <si>
     <t>人员统计表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -125,6 +130,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,7 +441,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,7 +521,6 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -526,9 +533,15 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>777</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43231.596736111111</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
